--- a/doc/BBS表设计V2.1.xlsx
+++ b/doc/BBS表设计V2.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A1768E-D63A-426F-B425-BED5D666918C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F7AF4-8D95-457D-BE2E-060DACE91AAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="发帖信息" sheetId="6" r:id="rId8"/>
     <sheet name="回帖信息" sheetId="7" r:id="rId9"/>
     <sheet name="用户表" sheetId="2" r:id="rId10"/>
-    <sheet name="资源表" sheetId="3" r:id="rId11"/>
-    <sheet name="消息留言表" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
+    <sheet name="资源表" sheetId="3" r:id="rId12"/>
+    <sheet name="消息留言表" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -481,10 +482,6 @@
   </si>
   <si>
     <t>BBS_POST_COMMEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子类型基础表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -912,13 +909,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>0-后端管理用户 
-1-普通注册用户  
-2-官网认证用户  
-3-业主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SYS_USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,10 +942,6 @@
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0-未审核   1-审核 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-身份证  1-业主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>省份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,6 +1107,25 @@
   </si>
   <si>
     <t>默认5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-实名认证  1-业主认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-后端管理用户 
+1-普通注册用户  
+2-业主 
+3-实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0-未审核   1-审核通过 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1490,12 +1491,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,6 +1505,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1853,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1994,10 +1995,10 @@
         <v>116</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>5</v>
@@ -2008,16 +2009,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2025,16 +2026,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2042,14 +2043,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2057,14 +2058,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2091,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2103,19 +2104,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="A1" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>16</v>
@@ -2129,19 +2130,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>22</v>
@@ -2150,24 +2151,24 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>22</v>
@@ -2176,13 +2177,13 @@
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>17</v>
@@ -2190,10 +2191,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>22</v>
@@ -2202,10 +2203,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>22</v>
@@ -2214,34 +2215,34 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>22</v>
@@ -2253,35 +2254,35 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>22</v>
@@ -2290,10 +2291,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>22</v>
@@ -2302,21 +2303,21 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
@@ -2326,10 +2327,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>22</v>
@@ -2338,7 +2339,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
@@ -2348,10 +2349,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>22</v>
@@ -2360,24 +2361,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>22</v>
@@ -2386,10 +2387,10 @@
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>22</v>
@@ -2398,10 +2399,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>22</v>
@@ -2410,77 +2411,77 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="38" t="s">
@@ -2501,6 +2502,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FFD763-7BE9-4049-B419-5ACBF9819628}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2515,12 +2529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2672,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6DC91-E19F-488B-874E-7552AEA31B9E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -2687,12 +2701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2717,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2725,16 +2739,16 @@
         <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>106</v>
@@ -2743,15 +2757,15 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -2763,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -2777,7 +2791,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -2789,7 +2803,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>86</v>
@@ -2801,11 +2815,11 @@
         <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
@@ -2813,7 +2827,7 @@
     </row>
     <row r="25" spans="17:17" x14ac:dyDescent="0.15">
       <c r="Q25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2844,12 +2858,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2863,18 +2877,18 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>260</v>
+      <c r="D3" s="43" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2882,16 +2896,16 @@
         <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>106</v>
@@ -2899,26 +2913,26 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>258</v>
+      <c r="D5" s="42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -2932,7 +2946,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -2944,7 +2958,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>86</v>
@@ -2956,11 +2970,11 @@
         <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
@@ -2993,12 +3007,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3014,10 +3028,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -3029,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -3043,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -3055,7 +3069,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>86</v>
@@ -3100,12 +3114,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3149,10 +3163,10 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -3166,13 +3180,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3180,7 +3194,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -3192,7 +3206,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>86</v>
@@ -3235,12 +3249,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3259,7 +3273,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>37</v>
@@ -3268,22 +3282,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -3292,13 +3306,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -3325,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3363,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3398,7 +3412,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -3439,12 +3453,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3505,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3543,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3578,7 +3592,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -3620,12 +3634,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3681,34 +3695,34 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3734,7 +3748,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3772,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3824,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3865,12 +3879,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3935,7 +3949,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3952,7 +3966,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>102</v>
@@ -3976,10 +3990,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>89</v>
@@ -4002,16 +4016,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4075,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4113,7 +4127,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4151,7 +4165,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -4192,22 +4206,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -4241,10 +4255,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -4258,10 +4272,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -4270,7 +4284,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -4282,39 +4296,39 @@
         <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -4342,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -4356,7 +4370,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -4367,10 +4381,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">

--- a/doc/BBS表设计V2.1.xlsx
+++ b/doc/BBS表设计V2.1.xlsx
@@ -3,31 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F7AF4-8D95-457D-BE2E-060DACE91AAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9A549-9D5E-4B40-9B37-2C2DF1F4EB9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="身份认证" sheetId="12" r:id="rId2"/>
-    <sheet name="签到" sheetId="10" r:id="rId3"/>
-    <sheet name="帖子收藏" sheetId="9" r:id="rId4"/>
-    <sheet name="帖子分类" sheetId="8" r:id="rId5"/>
-    <sheet name="父版块" sheetId="4" r:id="rId6"/>
-    <sheet name="子版块" sheetId="5" r:id="rId7"/>
-    <sheet name="发帖信息" sheetId="6" r:id="rId8"/>
-    <sheet name="回帖信息" sheetId="7" r:id="rId9"/>
-    <sheet name="用户表" sheetId="2" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
-    <sheet name="资源表" sheetId="3" r:id="rId12"/>
-    <sheet name="消息留言表" sheetId="11" r:id="rId13"/>
+    <sheet name="认证审核记录" sheetId="14" r:id="rId3"/>
+    <sheet name="签到" sheetId="10" r:id="rId4"/>
+    <sheet name="帖子收藏" sheetId="9" r:id="rId5"/>
+    <sheet name="帖子分类" sheetId="8" r:id="rId6"/>
+    <sheet name="父版块" sheetId="4" r:id="rId7"/>
+    <sheet name="子版块" sheetId="5" r:id="rId8"/>
+    <sheet name="发帖信息" sheetId="6" r:id="rId9"/>
+    <sheet name="回帖信息" sheetId="7" r:id="rId10"/>
+    <sheet name="用户表" sheetId="2" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
+    <sheet name="资源表" sheetId="3" r:id="rId13"/>
+    <sheet name="消息留言表" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="287">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,6 +1127,65 @@
   </si>
   <si>
     <t>基础数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_AUTHENTICATION_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB后端用户审核记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核 SYS_AUTHENTICATION_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIBE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>认证用户</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
+    <t>审核信息</t>
+  </si>
+  <si>
+    <t>审核时间</t>
+  </si>
+  <si>
+    <t>处理人</t>
+  </si>
+  <si>
+    <t>申请渠道</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>认证类型(0:实名认证 1:商家认证)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1510,6 +1570,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1852,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2068,6 +2132,23 @@
         <v>253</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2082,6 +2163,7 @@
     <hyperlink ref="E10" location="签到!A1" display="查看" xr:uid="{92E6DF0A-D5A6-4EBF-ABC2-62E308228451}"/>
     <hyperlink ref="E11" location="消息留言表!A1" display="查看" xr:uid="{855B0B95-9CDA-49AF-ADA6-380321285CC7}"/>
     <hyperlink ref="E12" location="身份认证!A1" display="查看" xr:uid="{8F92DC0B-3AD6-467B-A17E-B366894EFB8A}"/>
+    <hyperlink ref="E13" location="认证审核记录!A1" display="查看" xr:uid="{AE2B3789-25A6-42C4-9976-F46A00731ABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2089,6 +2171,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="44.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E15" location="首页!A1" display="返回" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -2501,7 +2802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FFD763-7BE9-4049-B419-5ACBF9819628}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2514,7 +2815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2686,7 +2987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6DC91-E19F-488B-874E-7552AEA31B9E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -2994,6 +3295,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A59430-91A0-47C3-AF87-40651E97E823}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" location="首页!A1" display="返回" xr:uid="{D8E55884-C03C-4429-9980-9424B6F105F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAEAE06-1A0E-45AB-A119-98877B8FA8CA}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3098,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3234,7 +3698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3438,7 +3902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3618,7 +4082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3863,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -4188,223 +4652,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="44.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E15" location="首页!A1" display="返回" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>